--- a/diaries/diary-anjana-krishnakumar-vellore.xlsx
+++ b/diaries/diary-anjana-krishnakumar-vellore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Winter\W2020\diaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BF78FC-F5D9-4573-80C5-2F638A733E04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02D2A3A-1466-422F-9537-51DE35D4F47E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CF5F261-EB17-4B41-A711-49E3E5ABBDDE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -154,6 +154,25 @@
   <si>
     <t>11pm - 1am
 10am - 1pm</t>
+  </si>
+  <si>
+    <t>5pm - 7.50pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understood that the strategies or techniques employed to read the code can differ based on our requirement/goal. </t>
+  </si>
+  <si>
+    <t>Happy to attend Ping Chen's session. Look forward to more such sessions in the future.
+Nervous about the project.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As the lecture slides for the day was not available, I was not quite sure about what all topics would be covered in the class. I was hoping to get to know more instructions about the project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understood the basic strategies employed while reading the code. 
+Practiced few techniques using JPacMan source code by fixing bugs and making small functional changes.
+Got to know how the process of reverse engineering works in the industry and Google in particular.
+</t>
   </si>
 </sst>
 </file>
@@ -647,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03ADA9CD-54FE-4929-A60C-E962D9D8534C}">
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,14 +876,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
+    <row r="14" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>43846</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
